--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2220,7 +2220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="363">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3610,6 +3610,10 @@
   </si>
   <si>
     <t>0.2,0.28,0.32,0.36,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3993,11 +3997,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ121"/>
+  <dimension ref="A1:CJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CB112" sqref="CB112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32710,6 +32714,242 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>362</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>-1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>3</v>
+      </c>
+      <c r="P122">
+        <v>5</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>85</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>1</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>2</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>10</v>
+      </c>
+      <c r="AB122">
+        <v>1</v>
+      </c>
+      <c r="AC122">
+        <v>2</v>
+      </c>
+      <c r="AD122">
+        <v>5</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>1</v>
+      </c>
+      <c r="AG122">
+        <v>1</v>
+      </c>
+      <c r="AH122">
+        <v>-1</v>
+      </c>
+      <c r="AI122">
+        <v>2</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>20</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>-1</v>
+      </c>
+      <c r="AO122">
+        <v>2</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>0</v>
+      </c>
+      <c r="AS122">
+        <v>0</v>
+      </c>
+      <c r="AT122">
+        <v>0</v>
+      </c>
+      <c r="AV122">
+        <v>2</v>
+      </c>
+      <c r="AW122">
+        <v>2</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>123</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>1</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>10</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+      <c r="BQ122">
+        <v>0</v>
+      </c>
+      <c r="BT122">
+        <v>0</v>
+      </c>
+      <c r="BU122">
+        <v>0</v>
+      </c>
+      <c r="BV122">
+        <v>0</v>
+      </c>
+      <c r="BW122">
+        <v>0</v>
+      </c>
+      <c r="BX122">
+        <v>0</v>
+      </c>
+      <c r="BY122">
+        <v>0</v>
+      </c>
+      <c r="CA122">
+        <v>0</v>
+      </c>
+      <c r="CB122">
+        <v>0</v>
+      </c>
+      <c r="CC122">
+        <v>0</v>
+      </c>
+      <c r="CD122" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE122" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF122">
+        <v>0</v>
+      </c>
+      <c r="CG122">
+        <v>0</v>
+      </c>
+      <c r="CH122">
+        <v>2</v>
+      </c>
+      <c r="CI122">
+        <v>0</v>
+      </c>
+      <c r="CJ122">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="366">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3673,6 +3673,10 @@
   </si>
   <si>
     <t>CastOverFreshCD</t>
+  </si>
+  <si>
+    <t>BOSS风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4055,11 +4059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL122"/>
+  <dimension ref="A1:CL123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CK122" sqref="CK122"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN132" sqref="AN132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33394,6 +33398,248 @@
         <v>0</v>
       </c>
     </row>
+    <row r="123" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>-1</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123">
+        <v>43</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>2</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>1</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>2</v>
+      </c>
+      <c r="AA123">
+        <v>0.9</v>
+      </c>
+      <c r="AB123">
+        <v>0.1</v>
+      </c>
+      <c r="AC123">
+        <v>10</v>
+      </c>
+      <c r="AD123">
+        <v>1</v>
+      </c>
+      <c r="AE123">
+        <v>2</v>
+      </c>
+      <c r="AF123">
+        <v>4</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>1</v>
+      </c>
+      <c r="AJ123">
+        <v>-1</v>
+      </c>
+      <c r="AK123">
+        <v>2</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>60</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>-1</v>
+      </c>
+      <c r="AQ123">
+        <v>2</v>
+      </c>
+      <c r="AR123">
+        <v>0</v>
+      </c>
+      <c r="AS123">
+        <v>1</v>
+      </c>
+      <c r="AT123">
+        <v>12</v>
+      </c>
+      <c r="AU123">
+        <v>0</v>
+      </c>
+      <c r="AV123">
+        <v>0</v>
+      </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
+        <v>2</v>
+      </c>
+      <c r="AZ123">
+        <v>2</v>
+      </c>
+      <c r="BA123">
+        <v>238</v>
+      </c>
+      <c r="BC123">
+        <v>0</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>1</v>
+      </c>
+      <c r="BF123">
+        <v>0</v>
+      </c>
+      <c r="BH123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>1031</v>
+      </c>
+      <c r="BO123">
+        <v>10</v>
+      </c>
+      <c r="BP123">
+        <v>1</v>
+      </c>
+      <c r="BQ123">
+        <v>0</v>
+      </c>
+      <c r="BR123">
+        <v>0</v>
+      </c>
+      <c r="BS123">
+        <v>0</v>
+      </c>
+      <c r="BV123">
+        <v>0</v>
+      </c>
+      <c r="BW123">
+        <v>0</v>
+      </c>
+      <c r="BX123">
+        <v>0</v>
+      </c>
+      <c r="BY123">
+        <v>0</v>
+      </c>
+      <c r="BZ123">
+        <v>0</v>
+      </c>
+      <c r="CA123">
+        <v>0</v>
+      </c>
+      <c r="CC123">
+        <v>0</v>
+      </c>
+      <c r="CD123">
+        <v>0</v>
+      </c>
+      <c r="CE123">
+        <v>0</v>
+      </c>
+      <c r="CF123" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG123" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CH123">
+        <v>0</v>
+      </c>
+      <c r="CI123">
+        <v>0</v>
+      </c>
+      <c r="CJ123">
+        <v>2</v>
+      </c>
+      <c r="CK123">
+        <v>0</v>
+      </c>
+      <c r="CL123">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="368">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3676,6 +3676,14 @@
   </si>
   <si>
     <t>BOSS风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS影魔大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1500,2000,2500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4059,11 +4067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL123"/>
+  <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN132" sqref="AN132"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP134" sqref="AP134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33640,6 +33648,245 @@
         <v>0</v>
       </c>
     </row>
+    <row r="124" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>-1</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>18</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>2</v>
+      </c>
+      <c r="R124">
+        <v>5</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>11</v>
+      </c>
+      <c r="U124">
+        <v>5</v>
+      </c>
+      <c r="V124">
+        <v>2</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>2</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>2</v>
+      </c>
+      <c r="AA124">
+        <v>0.7</v>
+      </c>
+      <c r="AB124">
+        <v>2.5</v>
+      </c>
+      <c r="AC124">
+        <v>11</v>
+      </c>
+      <c r="AD124">
+        <v>1</v>
+      </c>
+      <c r="AE124">
+        <v>2</v>
+      </c>
+      <c r="AF124">
+        <v>4</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>3</v>
+      </c>
+      <c r="AI124">
+        <v>1</v>
+      </c>
+      <c r="AJ124">
+        <v>-1</v>
+      </c>
+      <c r="AK124">
+        <v>2</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>10</v>
+      </c>
+      <c r="AN124" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO124" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP124">
+        <v>1.5</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>0</v>
+      </c>
+      <c r="AS124">
+        <v>1</v>
+      </c>
+      <c r="AT124" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU124">
+        <v>0</v>
+      </c>
+      <c r="AV124">
+        <v>0</v>
+      </c>
+      <c r="AW124">
+        <v>55</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>2</v>
+      </c>
+      <c r="AZ124">
+        <v>2</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>1</v>
+      </c>
+      <c r="BF124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <v>0</v>
+      </c>
+      <c r="BO124">
+        <v>10</v>
+      </c>
+      <c r="BP124">
+        <v>0</v>
+      </c>
+      <c r="BQ124">
+        <v>0</v>
+      </c>
+      <c r="BR124">
+        <v>0</v>
+      </c>
+      <c r="BS124">
+        <v>0</v>
+      </c>
+      <c r="BV124">
+        <v>0</v>
+      </c>
+      <c r="BW124">
+        <v>0</v>
+      </c>
+      <c r="BX124">
+        <v>0</v>
+      </c>
+      <c r="BY124">
+        <v>0</v>
+      </c>
+      <c r="BZ124">
+        <v>0</v>
+      </c>
+      <c r="CA124">
+        <v>0</v>
+      </c>
+      <c r="CC124">
+        <v>0</v>
+      </c>
+      <c r="CD124">
+        <v>0</v>
+      </c>
+      <c r="CE124">
+        <v>0</v>
+      </c>
+      <c r="CF124" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG124" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CH124">
+        <v>0</v>
+      </c>
+      <c r="CI124">
+        <v>0</v>
+      </c>
+      <c r="CJ124">
+        <v>2</v>
+      </c>
+      <c r="CK124">
+        <v>0</v>
+      </c>
+      <c r="CL124">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -4069,9 +4069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP134" sqref="AP134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z64" sqref="A64:Z64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19231,7 +19231,7 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA64">
         <v>0.9</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -2427,10 +2427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200,275,350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11,9,7,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3684,6 +3680,10 @@
   </si>
   <si>
     <t>1000,1500,2000,2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,275,350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4069,9 +4069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z64" sqref="A64:Z64"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT11" sqref="AT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4109,46 +4109,46 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -4157,19 +4157,19 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>9</v>
@@ -4181,40 +4181,40 @@
         <v>11</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>13</v>
@@ -4223,22 +4223,22 @@
         <v>14</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>17</v>
@@ -4247,10 +4247,10 @@
         <v>22</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>23</v>
@@ -4262,28 +4262,28 @@
         <v>27</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BF1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="BH1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="BK1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>31</v>
@@ -4292,10 +4292,10 @@
         <v>32</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>36</v>
@@ -4319,52 +4319,52 @@
         <v>42</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="CA1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CB1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="CI1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CK1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CL1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.15">
@@ -4585,10 +4585,10 @@
         <v>0</v>
       </c>
       <c r="CF2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>20</v>
       </c>
       <c r="AN3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -4821,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="CF3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -5293,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="CF5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="CF6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH6">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5777,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="CF7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH7">
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -6013,10 +6013,10 @@
         <v>0</v>
       </c>
       <c r="CF8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH8">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6150,7 +6150,7 @@
         <v>4.25</v>
       </c>
       <c r="AN9">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -6161,14 +6161,14 @@
       <c r="AQ9">
         <v>2</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AR9">
         <v>1</v>
       </c>
       <c r="AS9">
         <v>1</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -6256,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="CF9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH9">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6495,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="CF10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH10">
         <v>0</v>
@@ -6521,7 +6521,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6632,7 +6632,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="BX11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BY11">
         <v>6</v>
@@ -6734,10 +6734,10 @@
         <v>0</v>
       </c>
       <c r="CF11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH11">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="CF12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH12">
         <v>0</v>
@@ -6996,7 +6996,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="BD13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -7209,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="CF13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH13">
         <v>0</v>
@@ -7235,7 +7235,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7346,7 +7346,7 @@
         <v>6.75</v>
       </c>
       <c r="AN14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -7448,10 +7448,10 @@
         <v>0</v>
       </c>
       <c r="CF14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH14">
         <v>1</v>
@@ -7474,7 +7474,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7585,7 +7585,7 @@
         <v>7.75</v>
       </c>
       <c r="AN15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -7690,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="CF15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH15">
         <v>0</v>
@@ -7716,7 +7716,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -7830,7 +7830,7 @@
         <v>0.1</v>
       </c>
       <c r="AO16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP16">
         <v>-1</v>
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="BD16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BE16">
         <v>2</v>
@@ -7929,10 +7929,10 @@
         <v>0</v>
       </c>
       <c r="CF16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -7955,7 +7955,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -8066,7 +8066,7 @@
         <v>6</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BO17">
         <v>10</v>
@@ -8168,10 +8168,10 @@
         <v>0</v>
       </c>
       <c r="CF17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH17">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8305,10 +8305,10 @@
         <v>7</v>
       </c>
       <c r="AN18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AP18">
         <v>-1</v>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -8407,10 +8407,10 @@
         <v>0</v>
       </c>
       <c r="CF18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH18">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8541,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AP19">
         <v>-1</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -8646,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="CF19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH19">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="CL19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:90" x14ac:dyDescent="0.15">
@@ -8672,7 +8672,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -8825,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="BE20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF20">
         <v>0</v>
@@ -8882,10 +8882,10 @@
         <v>0</v>
       </c>
       <c r="CF20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CG20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH20">
         <v>0</v>
@@ -8908,7 +8908,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="AT21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>-1</v>
       </c>
       <c r="BT21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BV21">
         <v>2</v>
@@ -9124,10 +9124,10 @@
         <v>0</v>
       </c>
       <c r="CF21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH21">
         <v>0</v>
@@ -9150,7 +9150,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9264,7 +9264,7 @@
         <v>5</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP22">
         <v>3.85</v>
@@ -9363,10 +9363,10 @@
         <v>0</v>
       </c>
       <c r="CF22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH22">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="AN23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -9602,10 +9602,10 @@
         <v>0</v>
       </c>
       <c r="CF23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG23" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG23" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH23">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9739,7 +9739,7 @@
         <v>0.1</v>
       </c>
       <c r="AO24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP24">
         <v>-1</v>
@@ -9838,10 +9838,10 @@
         <v>0</v>
       </c>
       <c r="CF24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH24">
         <v>0</v>
@@ -9856,7 +9856,7 @@
         <v>2</v>
       </c>
       <c r="CL24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.15">
@@ -9864,7 +9864,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="AN25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -10077,10 +10077,10 @@
         <v>0</v>
       </c>
       <c r="CF25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH25">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -10214,7 +10214,7 @@
         <v>10</v>
       </c>
       <c r="AN26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -10316,10 +10316,10 @@
         <v>0</v>
       </c>
       <c r="CF26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG26" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG26" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH26">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10453,7 +10453,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -10471,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -10555,10 +10555,10 @@
         <v>0</v>
       </c>
       <c r="CF27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH27">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -10791,10 +10791,10 @@
         <v>0</v>
       </c>
       <c r="CF28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH28">
         <v>0</v>
@@ -10817,7 +10817,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -11030,10 +11030,10 @@
         <v>0</v>
       </c>
       <c r="CF29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG29" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG29" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH29">
         <v>0</v>
@@ -11056,7 +11056,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="AN30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="AT30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -11242,7 +11242,7 @@
         <v>-1</v>
       </c>
       <c r="BT30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BV30">
         <v>2</v>
@@ -11272,10 +11272,10 @@
         <v>0</v>
       </c>
       <c r="CF30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH30">
         <v>0</v>
@@ -11298,7 +11298,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="AT31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -11511,10 +11511,10 @@
         <v>0</v>
       </c>
       <c r="CF31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG31" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="CG31" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="CH31">
         <v>0</v>
@@ -11537,7 +11537,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -11750,10 +11750,10 @@
         <v>0</v>
       </c>
       <c r="CF32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CG32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH32">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="AN33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="AT33" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -11989,10 +11989,10 @@
         <v>0</v>
       </c>
       <c r="CF33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH33">
         <v>0</v>
@@ -12015,7 +12015,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -12126,64 +12126,64 @@
         <v>4</v>
       </c>
       <c r="AN34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ34">
-        <v>2</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
-      </c>
-      <c r="AS34">
-        <v>1</v>
-      </c>
-      <c r="AT34" s="2" t="s">
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>2</v>
+      </c>
+      <c r="AY34">
+        <v>2</v>
+      </c>
+      <c r="AZ34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>0</v>
-      </c>
-      <c r="AX34">
-        <v>2</v>
-      </c>
-      <c r="AY34">
-        <v>2</v>
-      </c>
-      <c r="AZ34">
-        <v>2</v>
-      </c>
-      <c r="BC34">
-        <v>0</v>
-      </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>0</v>
-      </c>
-      <c r="BI34">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>0</v>
-      </c>
-      <c r="BK34" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="BO34">
         <v>10</v>
@@ -12228,10 +12228,10 @@
         <v>0</v>
       </c>
       <c r="CF34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH34">
         <v>0</v>
@@ -12254,7 +12254,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12383,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="AT35" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -12467,10 +12467,10 @@
         <v>0</v>
       </c>
       <c r="CF35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH35">
         <v>1</v>
@@ -12485,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="CL35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.15">
@@ -12493,7 +12493,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12601,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="AN36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -12703,10 +12703,10 @@
         <v>0</v>
       </c>
       <c r="CF36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG36" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG36" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH36">
         <v>0</v>
@@ -12729,7 +12729,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -12939,10 +12939,10 @@
         <v>0</v>
       </c>
       <c r="CF37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH37">
         <v>0</v>
@@ -12965,7 +12965,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="AN38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -13175,10 +13175,10 @@
         <v>0</v>
       </c>
       <c r="CF38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG38" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="CG38" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="CH38">
         <v>0</v>
@@ -13193,7 +13193,7 @@
         <v>3</v>
       </c>
       <c r="CL38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:90" x14ac:dyDescent="0.15">
@@ -13201,7 +13201,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -13312,10 +13312,10 @@
         <v>26</v>
       </c>
       <c r="AN39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP39">
         <v>1.5</v>
@@ -13330,7 +13330,7 @@
         <v>0.8</v>
       </c>
       <c r="AT39" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -13411,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="CF39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH39">
         <v>0</v>
@@ -13437,7 +13437,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="AN40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -13653,10 +13653,10 @@
         <v>0</v>
       </c>
       <c r="CF40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG40" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG40" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH40">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -13790,7 +13790,7 @@
         <v>10</v>
       </c>
       <c r="AN41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="AT41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -13892,10 +13892,10 @@
         <v>0</v>
       </c>
       <c r="CF41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG41" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG41" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH41">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -14029,10 +14029,10 @@
         <v>19.5</v>
       </c>
       <c r="AN42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO42" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="AO42" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="AP42">
         <v>2.5</v>
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="AT42" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -14128,10 +14128,10 @@
         <v>0</v>
       </c>
       <c r="CF42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH42">
         <v>0</v>
@@ -14154,7 +14154,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -14361,10 +14361,10 @@
         <v>0</v>
       </c>
       <c r="CF43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG43" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG43" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH43">
         <v>0</v>
@@ -14387,7 +14387,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -14498,10 +14498,10 @@
         <v>4</v>
       </c>
       <c r="AN44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AO44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP44">
         <v>4</v>
@@ -14516,7 +14516,7 @@
         <v>1</v>
       </c>
       <c r="AT44" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -14600,10 +14600,10 @@
         <v>0</v>
       </c>
       <c r="CF44" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG44" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH44">
         <v>0</v>
@@ -14626,7 +14626,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14839,10 +14839,10 @@
         <v>0</v>
       </c>
       <c r="CF45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG45" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG45" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH45">
         <v>0</v>
@@ -14865,7 +14865,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14976,7 +14976,7 @@
         <v>6</v>
       </c>
       <c r="AN46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -14994,16 +14994,16 @@
         <v>1</v>
       </c>
       <c r="AT46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="s">
         <v>125</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46" t="s">
-        <v>126</v>
       </c>
       <c r="AX46">
         <v>2</v>
@@ -15079,10 +15079,10 @@
         <v>0</v>
       </c>
       <c r="CF46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH46">
         <v>0</v>
@@ -15105,7 +15105,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -15219,7 +15219,7 @@
         <v>10</v>
       </c>
       <c r="AO47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP47">
         <v>3</v>
@@ -15234,7 +15234,7 @@
         <v>1</v>
       </c>
       <c r="AT47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -15321,10 +15321,10 @@
         <v>0</v>
       </c>
       <c r="CF47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH47">
         <v>0</v>
@@ -15339,7 +15339,7 @@
         <v>6</v>
       </c>
       <c r="CL47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:90" x14ac:dyDescent="0.15">
@@ -15347,7 +15347,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -15461,7 +15461,7 @@
         <v>10</v>
       </c>
       <c r="AO48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP48">
         <v>3</v>
@@ -15476,7 +15476,7 @@
         <v>1</v>
       </c>
       <c r="AT48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -15563,10 +15563,10 @@
         <v>0</v>
       </c>
       <c r="CF48" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG48" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH48">
         <v>0</v>
@@ -15581,7 +15581,7 @@
         <v>6</v>
       </c>
       <c r="CL48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:90" x14ac:dyDescent="0.15">
@@ -15589,7 +15589,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -15703,7 +15703,7 @@
         <v>10</v>
       </c>
       <c r="AO49" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP49">
         <v>3</v>
@@ -15718,7 +15718,7 @@
         <v>1</v>
       </c>
       <c r="AT49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -15802,10 +15802,10 @@
         <v>0</v>
       </c>
       <c r="CF49" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG49" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH49">
         <v>0</v>
@@ -15820,7 +15820,7 @@
         <v>6</v>
       </c>
       <c r="CL49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:90" x14ac:dyDescent="0.15">
@@ -15828,7 +15828,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15939,10 +15939,10 @@
         <v>10</v>
       </c>
       <c r="AN50" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO50" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP50">
         <v>1.5</v>
@@ -15957,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="AT50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -16041,10 +16041,10 @@
         <v>0</v>
       </c>
       <c r="CF50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH50">
         <v>0</v>
@@ -16067,7 +16067,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -16181,7 +16181,7 @@
         <v>16</v>
       </c>
       <c r="AO51" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AP51">
         <v>1.5</v>
@@ -16196,46 +16196,46 @@
         <v>1</v>
       </c>
       <c r="AT51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="AY51">
+        <v>2</v>
+      </c>
+      <c r="AZ51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>1</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BN51" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="AU51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
-      </c>
-      <c r="AX51">
-        <v>2</v>
-      </c>
-      <c r="AY51">
-        <v>2</v>
-      </c>
-      <c r="AZ51">
-        <v>2</v>
-      </c>
-      <c r="BC51">
-        <v>0</v>
-      </c>
-      <c r="BD51">
-        <v>0</v>
-      </c>
-      <c r="BE51">
-        <v>1</v>
-      </c>
-      <c r="BF51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>0</v>
-      </c>
-      <c r="BI51">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>0</v>
-      </c>
-      <c r="BN51" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="BO51">
         <v>0.2</v>
@@ -16280,10 +16280,10 @@
         <v>0</v>
       </c>
       <c r="CF51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH51">
         <v>0</v>
@@ -16306,7 +16306,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -16420,7 +16420,7 @@
         <v>0.1</v>
       </c>
       <c r="AO52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP52">
         <v>-1</v>
@@ -16465,7 +16465,7 @@
         <v>2</v>
       </c>
       <c r="BG52" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BH52">
         <v>0</v>
@@ -16519,10 +16519,10 @@
         <v>0</v>
       </c>
       <c r="CF52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH52">
         <v>0</v>
@@ -16545,7 +16545,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -16755,10 +16755,10 @@
         <v>0</v>
       </c>
       <c r="CF53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG53" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG53" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH53">
         <v>0</v>
@@ -16781,7 +16781,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -16892,7 +16892,7 @@
         <v>15</v>
       </c>
       <c r="AN54" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -16910,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="AT54" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -16964,7 +16964,7 @@
         <v>-1</v>
       </c>
       <c r="BT54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BV54">
         <v>1</v>
@@ -16994,10 +16994,10 @@
         <v>0</v>
       </c>
       <c r="CF54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH54">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -17230,10 +17230,10 @@
         <v>0</v>
       </c>
       <c r="CF55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG55" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG55" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH55">
         <v>0</v>
@@ -17256,7 +17256,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -17367,7 +17367,7 @@
         <v>12</v>
       </c>
       <c r="AN56" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -17385,46 +17385,46 @@
         <v>1</v>
       </c>
       <c r="AT56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>2</v>
+      </c>
+      <c r="AZ56">
+        <v>2</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>1</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="AU56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AX56">
-        <v>2</v>
-      </c>
-      <c r="AY56">
-        <v>2</v>
-      </c>
-      <c r="AZ56">
-        <v>2</v>
-      </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-      <c r="BD56">
-        <v>0</v>
-      </c>
-      <c r="BE56">
-        <v>1</v>
-      </c>
-      <c r="BF56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>0</v>
-      </c>
-      <c r="BI56">
-        <v>0</v>
-      </c>
-      <c r="BJ56">
-        <v>0</v>
-      </c>
-      <c r="BK56" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="BO56">
         <v>10</v>
@@ -17469,10 +17469,10 @@
         <v>0</v>
       </c>
       <c r="CF56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH56">
         <v>0</v>
@@ -17495,7 +17495,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -17606,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="AO57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AP57">
         <v>-1</v>
@@ -17702,10 +17702,10 @@
         <v>0</v>
       </c>
       <c r="CF57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH57">
         <v>0</v>
@@ -17728,7 +17728,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -17836,7 +17836,7 @@
         <v>0</v>
       </c>
       <c r="AN58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -17941,10 +17941,10 @@
         <v>0</v>
       </c>
       <c r="CF58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG58" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG58" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH58">
         <v>0</v>
@@ -17967,7 +17967,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -18078,10 +18078,10 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AO59" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AP59">
         <v>-1</v>
@@ -18096,7 +18096,7 @@
         <v>1</v>
       </c>
       <c r="AT59" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -18180,10 +18180,10 @@
         <v>0</v>
       </c>
       <c r="CF59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG59" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="CG59" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="CH59">
         <v>0</v>
@@ -18206,7 +18206,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -18317,7 +18317,7 @@
         <v>3</v>
       </c>
       <c r="AN60" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO60">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>1</v>
       </c>
       <c r="AT60" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -18422,10 +18422,10 @@
         <v>0</v>
       </c>
       <c r="CF60" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG60" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH60">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -18559,7 +18559,7 @@
         <v>8</v>
       </c>
       <c r="AN61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AO61">
         <v>0</v>
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -18664,10 +18664,10 @@
         <v>0</v>
       </c>
       <c r="CF61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG61" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="CG61" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="CH61">
         <v>0</v>
@@ -18690,7 +18690,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -18801,10 +18801,10 @@
         <v>2.75</v>
       </c>
       <c r="AN62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO62" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="AO62" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="AP62">
         <v>2.75</v>
@@ -18819,7 +18819,7 @@
         <v>1</v>
       </c>
       <c r="AT62" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -18900,10 +18900,10 @@
         <v>0</v>
       </c>
       <c r="CF62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH62">
         <v>0</v>
@@ -18926,7 +18926,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -19037,10 +19037,10 @@
         <v>3</v>
       </c>
       <c r="AN63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO63" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AP63">
         <v>-1</v>
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="AT63" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -19136,10 +19136,10 @@
         <v>0</v>
       </c>
       <c r="CF63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG63" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="CG63" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="CH63">
         <v>0</v>
@@ -19154,7 +19154,7 @@
         <v>7</v>
       </c>
       <c r="CL63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:90" x14ac:dyDescent="0.15">
@@ -19162,7 +19162,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -19276,7 +19276,7 @@
         <v>6</v>
       </c>
       <c r="AO64" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP64">
         <v>-1</v>
@@ -19291,7 +19291,7 @@
         <v>1</v>
       </c>
       <c r="AT64" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -19375,10 +19375,10 @@
         <v>0</v>
       </c>
       <c r="CF64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG64" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="CG64" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="CH64">
         <v>0</v>
@@ -19401,7 +19401,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -19431,7 +19431,7 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N65">
         <v>5</v>
@@ -19609,10 +19609,10 @@
         <v>0</v>
       </c>
       <c r="CF65" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG65" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH65">
         <v>0</v>
@@ -19635,7 +19635,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -19845,10 +19845,10 @@
         <v>0</v>
       </c>
       <c r="CF66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG66" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG66" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH66">
         <v>0</v>
@@ -19871,7 +19871,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -20000,7 +20000,7 @@
         <v>1</v>
       </c>
       <c r="AT67" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -20084,10 +20084,10 @@
         <v>0</v>
       </c>
       <c r="CF67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG67" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG67" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH67">
         <v>0</v>
@@ -20110,7 +20110,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="AN68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -20239,7 +20239,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AU68">
         <v>0</v>
@@ -20323,10 +20323,10 @@
         <v>0</v>
       </c>
       <c r="CF68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH68">
         <v>0</v>
@@ -20349,7 +20349,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -20460,7 +20460,7 @@
         <v>6</v>
       </c>
       <c r="AN69" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO69">
         <v>0</v>
@@ -20478,7 +20478,7 @@
         <v>1</v>
       </c>
       <c r="AT69" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU69">
         <v>0</v>
@@ -20517,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="BK69" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BO69">
         <v>10</v>
@@ -20562,10 +20562,10 @@
         <v>0</v>
       </c>
       <c r="CF69" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG69" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH69">
         <v>0</v>
@@ -20588,7 +20588,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -20696,10 +20696,10 @@
         <v>14</v>
       </c>
       <c r="AN70" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AO70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP70">
         <v>-1</v>
@@ -20714,7 +20714,7 @@
         <v>1</v>
       </c>
       <c r="AT70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU70">
         <v>0</v>
@@ -20801,10 +20801,10 @@
         <v>0</v>
       </c>
       <c r="CF70" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG70" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH70">
         <v>0</v>
@@ -20827,7 +20827,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -20938,7 +20938,7 @@
         <v>8</v>
       </c>
       <c r="AN71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -20956,16 +20956,16 @@
         <v>1</v>
       </c>
       <c r="AT71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71" t="s">
         <v>195</v>
-      </c>
-      <c r="AU71">
-        <v>0</v>
-      </c>
-      <c r="AV71">
-        <v>0</v>
-      </c>
-      <c r="AW71" t="s">
-        <v>196</v>
       </c>
       <c r="AX71">
         <v>2</v>
@@ -21040,10 +21040,10 @@
         <v>0</v>
       </c>
       <c r="CF71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG71" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="CG71" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="CH71">
         <v>0</v>
@@ -21066,7 +21066,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -21177,7 +21177,7 @@
         <v>2.6</v>
       </c>
       <c r="AN72" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -21195,7 +21195,7 @@
         <v>1</v>
       </c>
       <c r="AT72" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -21237,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="BK72" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BO72">
         <v>10</v>
@@ -21282,10 +21282,10 @@
         <v>0</v>
       </c>
       <c r="CF72" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG72" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH72">
         <v>0</v>
@@ -21308,7 +21308,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -21437,7 +21437,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -21500,7 +21500,7 @@
         <v>0</v>
       </c>
       <c r="BX73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BY73">
         <v>0.5</v>
@@ -21524,10 +21524,10 @@
         <v>0</v>
       </c>
       <c r="CF73" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG73" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH73">
         <v>0</v>
@@ -21550,7 +21550,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -21766,10 +21766,10 @@
         <v>0</v>
       </c>
       <c r="CF74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG74" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="CG74" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="CH74">
         <v>0</v>
@@ -21792,7 +21792,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -21846,7 +21846,7 @@
         <v>19</v>
       </c>
       <c r="U75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="V75">
         <v>2</v>
@@ -21906,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="AO75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP75">
         <v>2</v>
@@ -21987,7 +21987,7 @@
         <v>0.5</v>
       </c>
       <c r="BY75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BZ75">
         <v>2</v>
@@ -22008,10 +22008,10 @@
         <v>0</v>
       </c>
       <c r="CF75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH75">
         <v>0</v>
@@ -22034,7 +22034,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -22145,7 +22145,7 @@
         <v>4.75</v>
       </c>
       <c r="AN76" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AO76">
         <v>0</v>
@@ -22163,7 +22163,7 @@
         <v>1</v>
       </c>
       <c r="AT76" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AU76">
         <v>0</v>
@@ -22241,16 +22241,16 @@
         <v>1</v>
       </c>
       <c r="CD76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CE76">
         <v>0</v>
       </c>
       <c r="CF76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH76">
         <v>2</v>
@@ -22273,7 +22273,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="AN77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO77">
         <v>0</v>
@@ -22486,10 +22486,10 @@
         <v>0</v>
       </c>
       <c r="CF77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH77">
         <v>0</v>
@@ -22512,7 +22512,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -22725,10 +22725,10 @@
         <v>0</v>
       </c>
       <c r="CF78" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG78" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH78">
         <v>0</v>
@@ -22743,7 +22743,7 @@
         <v>8</v>
       </c>
       <c r="CL78" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:90" x14ac:dyDescent="0.15">
@@ -22751,7 +22751,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -22877,16 +22877,16 @@
         <v>1</v>
       </c>
       <c r="AT79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="s">
         <v>217</v>
-      </c>
-      <c r="AU79">
-        <v>0</v>
-      </c>
-      <c r="AV79">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="s">
-        <v>218</v>
       </c>
       <c r="AX79">
         <v>2</v>
@@ -22961,10 +22961,10 @@
         <v>0</v>
       </c>
       <c r="CF79" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG79" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH79">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -23197,10 +23197,10 @@
         <v>0</v>
       </c>
       <c r="CF80" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG80" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH80">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="CF81" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG81" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH81">
         <v>0</v>
@@ -23456,7 +23456,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -23663,10 +23663,10 @@
         <v>0</v>
       </c>
       <c r="CF82" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CG82" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH82">
         <v>0</v>
@@ -23689,7 +23689,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="CF83" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG83" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH83">
         <v>0</v>
@@ -23928,7 +23928,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="CF84" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG84" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH84">
         <v>0</v>
@@ -24161,7 +24161,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -24310,7 +24310,7 @@
         <v>2</v>
       </c>
       <c r="BA85" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BB85" s="4"/>
       <c r="BC85" s="4">
@@ -24385,10 +24385,10 @@
         <v>0</v>
       </c>
       <c r="CF85" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG85" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CH85" s="4">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -24526,7 +24526,7 @@
         <v>30</v>
       </c>
       <c r="AO86" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AP86" s="4">
         <v>12</v>
@@ -24635,10 +24635,10 @@
         <v>0</v>
       </c>
       <c r="CF86" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG86" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH86" s="4">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -24800,7 +24800,7 @@
         <v>0</v>
       </c>
       <c r="AW87" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AX87" s="4">
         <v>2</v>
@@ -24887,10 +24887,10 @@
         <v>0</v>
       </c>
       <c r="CF87" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CG87" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CH87" s="4">
         <v>0</v>
@@ -24913,7 +24913,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -25028,7 +25028,7 @@
         <v>55</v>
       </c>
       <c r="AO88" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP88" s="4">
         <v>-1</v>
@@ -25135,10 +25135,10 @@
         <v>160</v>
       </c>
       <c r="CF88" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG88" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH88" s="4">
         <v>0</v>
@@ -25161,7 +25161,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -25276,7 +25276,7 @@
         <v>30</v>
       </c>
       <c r="AO89" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP89" s="4">
         <v>12</v>
@@ -25385,10 +25385,10 @@
         <v>0</v>
       </c>
       <c r="CF89" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG89" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH89" s="4">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -25526,7 +25526,7 @@
         <v>65</v>
       </c>
       <c r="AO90" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP90" s="4">
         <v>-1</v>
@@ -25627,16 +25627,16 @@
         <v>1</v>
       </c>
       <c r="CD90" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="CE90">
         <v>0</v>
       </c>
       <c r="CF90" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG90" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH90" s="4">
         <v>2</v>
@@ -25659,7 +25659,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -25774,7 +25774,7 @@
         <v>60</v>
       </c>
       <c r="AO91" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP91" s="4">
         <v>12</v>
@@ -25883,10 +25883,10 @@
         <v>0</v>
       </c>
       <c r="CF91" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG91" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH91" s="4">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -26119,10 +26119,10 @@
         <v>0</v>
       </c>
       <c r="CF92" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG92" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH92">
         <v>0</v>
@@ -26145,7 +26145,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -26260,7 +26260,7 @@
         <v>20</v>
       </c>
       <c r="AO93" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AP93" s="4">
         <v>6</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="CF93" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG93" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH93" s="4">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -26509,7 +26509,7 @@
         <v>35</v>
       </c>
       <c r="AO94" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AP94">
         <v>-1</v>
@@ -26605,10 +26605,10 @@
         <v>0</v>
       </c>
       <c r="CF94" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG94" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="CG94" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="CH94">
         <v>0</v>
@@ -26631,7 +26631,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -26770,7 +26770,7 @@
         <v>0</v>
       </c>
       <c r="AW95" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AX95" s="4">
         <v>2</v>
@@ -26855,10 +26855,10 @@
         <v>0</v>
       </c>
       <c r="CF95" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG95" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH95" s="4">
         <v>0</v>
@@ -26881,7 +26881,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="AW96" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AX96" s="4">
         <v>2</v>
@@ -27105,10 +27105,10 @@
         <v>0</v>
       </c>
       <c r="CF96" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG96" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH96" s="4">
         <v>0</v>
@@ -27131,7 +27131,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="AW97" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AX97" s="4">
         <v>2</v>
@@ -27355,10 +27355,10 @@
         <v>0</v>
       </c>
       <c r="CF97" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG97" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH97" s="4">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -27493,7 +27493,7 @@
         <v>0</v>
       </c>
       <c r="AN98" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AO98" s="4">
         <v>0</v>
@@ -27603,10 +27603,10 @@
         <v>0</v>
       </c>
       <c r="CF98" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG98" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH98" s="4">
         <v>0</v>
@@ -27629,7 +27629,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -27768,7 +27768,7 @@
         <v>0</v>
       </c>
       <c r="AW99" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AX99" s="4">
         <v>2</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="CF99" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG99" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH99" s="4">
         <v>0</v>
@@ -27879,7 +27879,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -28086,10 +28086,10 @@
         <v>0</v>
       </c>
       <c r="CF100" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG100" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH100">
         <v>0</v>
@@ -28112,7 +28112,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -28322,10 +28322,10 @@
         <v>0</v>
       </c>
       <c r="CF101" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG101" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH101">
         <v>0</v>
@@ -28348,7 +28348,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -28558,10 +28558,10 @@
         <v>0</v>
       </c>
       <c r="CF102" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG102" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH102">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -28723,7 +28723,7 @@
         <v>0</v>
       </c>
       <c r="AW103" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AX103" s="4">
         <v>2</v>
@@ -28808,10 +28808,10 @@
         <v>0</v>
       </c>
       <c r="CF103" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG103" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH103" s="4">
         <v>0</v>
@@ -28834,7 +28834,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -29042,10 +29042,10 @@
         <v>0</v>
       </c>
       <c r="CF104" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG104" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH104">
         <v>0</v>
@@ -29068,7 +29068,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -29275,10 +29275,10 @@
         <v>0</v>
       </c>
       <c r="CF105" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG105" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH105">
         <v>0</v>
@@ -29301,7 +29301,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -29440,7 +29440,7 @@
         <v>0</v>
       </c>
       <c r="AW106" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AX106" s="4">
         <v>2</v>
@@ -29525,10 +29525,10 @@
         <v>0</v>
       </c>
       <c r="CF106" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG106" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH106" s="4">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -29764,10 +29764,10 @@
         <v>0</v>
       </c>
       <c r="CF107" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG107" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH107">
         <v>0</v>
@@ -29790,7 +29790,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -30003,10 +30003,10 @@
         <v>0</v>
       </c>
       <c r="CF108" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG108" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH108">
         <v>0</v>
@@ -30029,7 +30029,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -30242,10 +30242,10 @@
         <v>0</v>
       </c>
       <c r="CF109" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG109" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH109">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -30382,7 +30382,7 @@
         <v>30</v>
       </c>
       <c r="AO110" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AP110">
         <v>9</v>
@@ -30481,10 +30481,10 @@
         <v>0</v>
       </c>
       <c r="CF110" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CG110" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH110">
         <v>0</v>
@@ -30507,7 +30507,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -30636,7 +30636,7 @@
         <v>1</v>
       </c>
       <c r="AT111" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AU111">
         <v>0</v>
@@ -30693,7 +30693,7 @@
         <v>-1</v>
       </c>
       <c r="BT111" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BV111">
         <v>2</v>
@@ -30723,10 +30723,10 @@
         <v>0</v>
       </c>
       <c r="CF111" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG111" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH111">
         <v>0</v>
@@ -30749,7 +30749,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -30965,16 +30965,16 @@
         <v>3</v>
       </c>
       <c r="CD112" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CE112">
         <v>0</v>
       </c>
       <c r="CF112" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG112" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH112" s="4">
         <v>2</v>
@@ -30997,7 +30997,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -31207,10 +31207,10 @@
         <v>0</v>
       </c>
       <c r="CF113" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG113" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH113">
         <v>0</v>
@@ -31233,7 +31233,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -31382,7 +31382,7 @@
         <v>2</v>
       </c>
       <c r="BA114" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BB114" s="4"/>
       <c r="BC114" s="4">
@@ -31457,10 +31457,10 @@
         <v>0</v>
       </c>
       <c r="CF114" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG114" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH114" s="4">
         <v>0</v>
@@ -31483,7 +31483,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -31694,10 +31694,10 @@
         <v>0</v>
       </c>
       <c r="CF115" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG115" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH115">
         <v>0</v>
@@ -31720,7 +31720,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -31927,10 +31927,10 @@
         <v>0</v>
       </c>
       <c r="CF116" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG116" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH116">
         <v>0</v>
@@ -31953,7 +31953,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -32092,7 +32092,7 @@
         <v>0</v>
       </c>
       <c r="AW117" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AX117" s="4">
         <v>2</v>
@@ -32177,10 +32177,10 @@
         <v>0</v>
       </c>
       <c r="CF117" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG117" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH117" s="4">
         <v>0</v>
@@ -32203,7 +32203,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -32413,10 +32413,10 @@
         <v>0</v>
       </c>
       <c r="CF118" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG118" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH118">
         <v>0</v>
@@ -32439,7 +32439,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -32578,7 +32578,7 @@
         <v>0</v>
       </c>
       <c r="AW119" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AX119" s="4">
         <v>2</v>
@@ -32663,10 +32663,10 @@
         <v>0</v>
       </c>
       <c r="CF119" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG119" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH119" s="4">
         <v>0</v>
@@ -32689,7 +32689,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -32824,7 +32824,7 @@
         <v>0</v>
       </c>
       <c r="AW120" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AX120">
         <v>2</v>
@@ -32899,10 +32899,10 @@
         <v>0</v>
       </c>
       <c r="CF120" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG120" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH120">
         <v>0</v>
@@ -32925,7 +32925,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
@@ -33074,7 +33074,7 @@
         <v>2</v>
       </c>
       <c r="BA121" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BB121" s="4"/>
       <c r="BC121" s="4">
@@ -33149,10 +33149,10 @@
         <v>0</v>
       </c>
       <c r="CF121" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG121" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CH121" s="4">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -33385,10 +33385,10 @@
         <v>0</v>
       </c>
       <c r="CF122" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG122" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CH122">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -33627,10 +33627,10 @@
         <v>0</v>
       </c>
       <c r="CF123" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG123" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH123">
         <v>0</v>
@@ -33653,7 +33653,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -33764,10 +33764,10 @@
         <v>10</v>
       </c>
       <c r="AN124" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO124" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AP124">
         <v>1.5</v>
@@ -33782,7 +33782,7 @@
         <v>1</v>
       </c>
       <c r="AT124" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU124">
         <v>0</v>
@@ -33866,10 +33866,10 @@
         <v>0</v>
       </c>
       <c r="CF124" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CG124" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CH124">
         <v>0</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D5B26B-79D5-416D-B74F-CA6B6E2329B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -412,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -464,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -490,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -568,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -594,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -620,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -646,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -672,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -698,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -724,7 +725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -750,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -776,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -802,7 +803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -828,7 +829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -854,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -880,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -906,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -932,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -958,7 +959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -984,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -1194,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -1220,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -1246,7 +1247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -1350,7 +1351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -1377,7 +1378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0">
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0">
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -1418,7 +1419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0">
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1470,7 +1471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1496,7 +1497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1522,7 +1523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1548,7 +1549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1574,7 +1575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1600,7 +1601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1626,7 +1627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
+    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1652,7 +1653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
+    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
       <text>
         <r>
           <rPr>
@@ -1678,7 +1679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
       <text>
         <r>
           <rPr>
@@ -1704,7 +1705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -1730,7 +1731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
       <text>
         <r>
           <rPr>
@@ -1756,7 +1757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
       <text>
         <r>
           <rPr>
@@ -1782,7 +1783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
+    <comment ref="BT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
       <text>
         <r>
           <rPr>
@@ -1834,7 +1835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
+    <comment ref="BV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
       <text>
         <r>
           <rPr>
@@ -1860,7 +1861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0">
+    <comment ref="BW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
       <text>
         <r>
           <rPr>
@@ -1886,7 +1887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="BX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
       <text>
         <r>
           <rPr>
@@ -1900,7 +1901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -1926,7 +1927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -1952,7 +1953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
       <text>
         <r>
           <rPr>
@@ -1978,7 +1979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -2004,7 +2005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
       <text>
         <r>
           <rPr>
@@ -2031,7 +2032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
       <text>
         <r>
           <rPr>
@@ -2057,7 +2058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
       <text>
         <r>
           <rPr>
@@ -2083,7 +2084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0">
+    <comment ref="CF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
       <text>
         <r>
           <rPr>
@@ -2109,7 +2110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG1" authorId="0" shapeId="0">
+    <comment ref="CG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
       <text>
         <r>
           <rPr>
@@ -2135,7 +2136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH1" authorId="0" shapeId="0">
+    <comment ref="CH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
       <text>
         <r>
           <rPr>
@@ -2161,7 +2162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI1" authorId="0" shapeId="0">
+    <comment ref="CI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
       <text>
         <r>
           <rPr>
@@ -2187,7 +2188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ1" authorId="0" shapeId="0">
+    <comment ref="CJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
       <text>
         <r>
           <rPr>
@@ -2213,7 +2214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK1" authorId="0" shapeId="0">
+    <comment ref="CK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
       <text>
         <r>
           <rPr>
@@ -2241,7 +2242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0" shapeId="0">
+    <comment ref="CL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
       <text>
         <r>
           <rPr>
@@ -2796,10 +2797,6 @@
     <t>TriggerOtherRuleParam</t>
   </si>
   <si>
-    <t>4:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幽鬼荒芜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2808,10 +2805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幽鬼折射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3548,9 +3541,6 @@
   <si>
     <t>135,165,195,225</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MirrorUsed</t>
   </si>
   <si>
     <t>InitLevel</t>
@@ -3686,12 +3676,24 @@
     <t>2,275,350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1:4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:5:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MirrorUsed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3781,7 +3783,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3856,6 +3858,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3891,6 +3910,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4066,15 +4102,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT11" sqref="AT11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="4" max="7" width="14.875" customWidth="1"/>
@@ -4095,7 +4131,7 @@
     <col min="90" max="90" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:90" ht="136.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4109,46 +4145,46 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -4157,19 +4193,19 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>9</v>
@@ -4184,16 +4220,16 @@
         <v>132</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>118</v>
@@ -4202,10 +4238,10 @@
         <v>119</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>120</v>
@@ -4214,7 +4250,7 @@
         <v>12</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>13</v>
@@ -4235,10 +4271,10 @@
         <v>16</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>17</v>
@@ -4247,10 +4283,10 @@
         <v>22</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>23</v>
@@ -4262,7 +4298,7 @@
         <v>27</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>28</v>
@@ -4274,7 +4310,7 @@
         <v>142</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>53</v>
@@ -4319,7 +4355,7 @@
         <v>42</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>102</v>
@@ -4331,7 +4367,7 @@
         <v>51</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="CB1" s="1" t="s">
         <v>57</v>
@@ -4343,7 +4379,7 @@
         <v>59</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="CF1" s="1" t="s">
         <v>77</v>
@@ -4355,10 +4391,10 @@
         <v>60</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>69</v>
@@ -4367,7 +4403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:90">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4606,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:90">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4842,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:90" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:90" ht="12.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5081,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:90">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5314,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:90">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5556,12 +5592,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:90">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5798,12 +5834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:90">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -6034,12 +6070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:90">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6168,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -6277,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:90">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6516,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:90">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6632,7 +6668,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -6755,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:90">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6772,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -6991,12 +7027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:90">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -7155,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="2" t="s">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -7230,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:90">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7346,7 +7382,7 @@
         <v>6.75</v>
       </c>
       <c r="AN14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -7469,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:90">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7585,7 +7621,7 @@
         <v>7.75</v>
       </c>
       <c r="AN15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -7711,12 +7747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:90">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -7869,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="BD16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BE16">
         <v>2</v>
@@ -7950,12 +7986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:90">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -8066,7 +8102,7 @@
         <v>6</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8189,12 +8225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:90">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8308,7 +8344,7 @@
         <v>67</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AP18">
         <v>-1</v>
@@ -8428,12 +8464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:90">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8667,12 +8703,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:90">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -8903,12 +8939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:90">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9145,12 +9181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:90">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9384,12 +9420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:90">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9500,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AN23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -9623,12 +9659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:90">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9640,7 +9676,7 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -9859,12 +9895,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:90">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -10098,12 +10134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:90">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -10337,12 +10373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:90">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10576,12 +10612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:90">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -10593,7 +10629,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -10812,12 +10848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:90">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -11051,12 +11087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:90">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -11167,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="AN30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -11293,12 +11329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:90">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11532,12 +11568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:90">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -11771,12 +11807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:90">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11887,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="AN33" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -12010,12 +12046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:90">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -12249,12 +12285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:90">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12383,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="AT35" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -12488,12 +12524,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:90">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12724,12 +12760,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:90">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -12960,12 +12996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:90">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -13196,12 +13232,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:90">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -13432,12 +13468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:90">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13674,12 +13710,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:90">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -13913,12 +13949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:90">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -14149,12 +14185,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:90">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -14382,12 +14418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:90">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -14621,12 +14657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:90">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14860,12 +14896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:90">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14976,7 +15012,7 @@
         <v>6</v>
       </c>
       <c r="AN46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -15100,12 +15136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:90">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -15342,7 +15378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:90">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15584,7 +15620,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:90">
       <c r="A49">
         <v>48</v>
       </c>
@@ -15823,12 +15859,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:90">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15939,7 +15975,7 @@
         <v>10</v>
       </c>
       <c r="AN50" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AO50" s="2" t="s">
         <v>133</v>
@@ -16062,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:90">
       <c r="A51">
         <v>50</v>
       </c>
@@ -16301,12 +16337,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:90">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -16420,7 +16456,7 @@
         <v>0.1</v>
       </c>
       <c r="AO52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AP52">
         <v>-1</v>
@@ -16465,7 +16501,7 @@
         <v>2</v>
       </c>
       <c r="BG52" s="2" t="s">
-        <v>146</v>
+        <v>366</v>
       </c>
       <c r="BH52">
         <v>0</v>
@@ -16540,12 +16576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:90">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -16776,12 +16812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:90">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -16892,7 +16928,7 @@
         <v>15</v>
       </c>
       <c r="AN54" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -16910,7 +16946,7 @@
         <v>1</v>
       </c>
       <c r="AT54" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -16964,7 +17000,7 @@
         <v>-1</v>
       </c>
       <c r="BT54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BV54">
         <v>1</v>
@@ -17015,12 +17051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:90">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -17251,12 +17287,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:90">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -17367,7 +17403,7 @@
         <v>12</v>
       </c>
       <c r="AN56" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -17385,7 +17421,7 @@
         <v>1</v>
       </c>
       <c r="AT56" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -17424,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BO56">
         <v>10</v>
@@ -17490,12 +17526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:90">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -17507,7 +17543,7 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -17606,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="AO57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AP57">
         <v>-1</v>
@@ -17723,12 +17759,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:90">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -17836,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="AN58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -17962,12 +17998,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:90">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -18078,10 +18114,10 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO59" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="AO59" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="AP59">
         <v>-1</v>
@@ -18096,7 +18132,7 @@
         <v>1</v>
       </c>
       <c r="AT59" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -18201,12 +18237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:90">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -18335,7 +18371,7 @@
         <v>1</v>
       </c>
       <c r="AT60" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -18443,12 +18479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:90">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -18685,12 +18721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:90">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -18801,10 +18837,10 @@
         <v>2.75</v>
       </c>
       <c r="AN62" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AO62" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AP62">
         <v>2.75</v>
@@ -18921,12 +18957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:90">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -19037,10 +19073,10 @@
         <v>3</v>
       </c>
       <c r="AN63" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AO63" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AP63">
         <v>-1</v>
@@ -19055,7 +19091,7 @@
         <v>1</v>
       </c>
       <c r="AT63" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -19154,15 +19190,15 @@
         <v>7</v>
       </c>
       <c r="CL63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:90">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -19276,7 +19312,7 @@
         <v>6</v>
       </c>
       <c r="AO64" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AP64">
         <v>-1</v>
@@ -19291,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="AT64" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -19396,12 +19432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:90">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -19431,7 +19467,7 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N65">
         <v>5</v>
@@ -19630,12 +19666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:90">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -19866,12 +19902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:90">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -20000,7 +20036,7 @@
         <v>1</v>
       </c>
       <c r="AT67" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -20105,12 +20141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:90">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -20221,7 +20257,7 @@
         <v>0</v>
       </c>
       <c r="AN68" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -20239,7 +20275,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AU68">
         <v>0</v>
@@ -20344,12 +20380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:90">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -20460,7 +20496,7 @@
         <v>6</v>
       </c>
       <c r="AN69" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AO69">
         <v>0</v>
@@ -20517,7 +20553,7 @@
         <v>0</v>
       </c>
       <c r="BK69" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="BO69">
         <v>10</v>
@@ -20583,12 +20619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:90">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -20696,7 +20732,7 @@
         <v>14</v>
       </c>
       <c r="AN70" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AO70" s="2" t="s">
         <v>79</v>
@@ -20822,12 +20858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:90">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -20938,7 +20974,7 @@
         <v>8</v>
       </c>
       <c r="AN71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -20956,7 +20992,7 @@
         <v>1</v>
       </c>
       <c r="AT71" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AU71">
         <v>0</v>
@@ -20965,7 +21001,7 @@
         <v>0</v>
       </c>
       <c r="AW71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AX71">
         <v>2</v>
@@ -21061,12 +21097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:90">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -21177,7 +21213,7 @@
         <v>2.6</v>
       </c>
       <c r="AN72" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -21237,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="BK72" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BO72">
         <v>10</v>
@@ -21303,12 +21339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:90">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -21437,7 +21473,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -21500,7 +21536,7 @@
         <v>0</v>
       </c>
       <c r="BX73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BY73">
         <v>0.5</v>
@@ -21545,12 +21581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:90">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -21787,12 +21823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:90">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -21846,7 +21882,7 @@
         <v>19</v>
       </c>
       <c r="U75" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V75">
         <v>2</v>
@@ -21906,7 +21942,7 @@
         <v>0</v>
       </c>
       <c r="AO75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AP75">
         <v>2</v>
@@ -21987,7 +22023,7 @@
         <v>0.5</v>
       </c>
       <c r="BY75" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BZ75">
         <v>2</v>
@@ -22029,12 +22065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:90">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -22145,7 +22181,7 @@
         <v>4.75</v>
       </c>
       <c r="AN76" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AO76">
         <v>0</v>
@@ -22163,7 +22199,7 @@
         <v>1</v>
       </c>
       <c r="AT76" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AU76">
         <v>0</v>
@@ -22241,7 +22277,7 @@
         <v>1</v>
       </c>
       <c r="CD76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="CE76">
         <v>0</v>
@@ -22268,12 +22304,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:90">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -22381,7 +22417,7 @@
         <v>0</v>
       </c>
       <c r="AN77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AO77">
         <v>0</v>
@@ -22507,12 +22543,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:90">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -22743,15 +22779,15 @@
         <v>8</v>
       </c>
       <c r="CL78" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:90">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -22877,7 +22913,7 @@
         <v>1</v>
       </c>
       <c r="AT79" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AU79">
         <v>0</v>
@@ -22886,7 +22922,7 @@
         <v>0</v>
       </c>
       <c r="AW79" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AX79">
         <v>2</v>
@@ -22982,12 +23018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:90">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -23218,12 +23254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:90">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -23451,12 +23487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:90">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -23663,7 +23699,7 @@
         <v>0</v>
       </c>
       <c r="CF82" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="CG82" s="2" t="s">
         <v>72</v>
@@ -23684,12 +23720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:90">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -23923,12 +23959,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:90">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -24156,12 +24192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:90">
       <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -24310,7 +24346,7 @@
         <v>2</v>
       </c>
       <c r="BA85" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BB85" s="4"/>
       <c r="BC85" s="4">
@@ -24388,7 +24424,7 @@
         <v>73</v>
       </c>
       <c r="CG85" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CH85" s="4">
         <v>0</v>
@@ -24406,12 +24442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:90">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -24526,7 +24562,7 @@
         <v>30</v>
       </c>
       <c r="AO86" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AP86" s="4">
         <v>12</v>
@@ -24656,12 +24692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:90">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -24800,7 +24836,7 @@
         <v>0</v>
       </c>
       <c r="AW87" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AX87" s="4">
         <v>2</v>
@@ -24887,10 +24923,10 @@
         <v>0</v>
       </c>
       <c r="CF87" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CG87" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CH87" s="4">
         <v>0</v>
@@ -24908,12 +24944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:90">
       <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -25028,7 +25064,7 @@
         <v>55</v>
       </c>
       <c r="AO88" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AP88" s="4">
         <v>-1</v>
@@ -25156,12 +25192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:90">
       <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -25276,7 +25312,7 @@
         <v>30</v>
       </c>
       <c r="AO89" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AP89" s="4">
         <v>12</v>
@@ -25406,12 +25442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:90">
       <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -25526,7 +25562,7 @@
         <v>65</v>
       </c>
       <c r="AO90" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AP90" s="4">
         <v>-1</v>
@@ -25627,7 +25663,7 @@
         <v>1</v>
       </c>
       <c r="CD90" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="CE90">
         <v>0</v>
@@ -25654,12 +25690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:90">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -25774,7 +25810,7 @@
         <v>60</v>
       </c>
       <c r="AO91" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AP91" s="4">
         <v>12</v>
@@ -25904,12 +25940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:90">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -26140,12 +26176,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:90">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -26260,7 +26296,7 @@
         <v>20</v>
       </c>
       <c r="AO93" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AP93" s="4">
         <v>6</v>
@@ -26390,12 +26426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:90">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -26509,7 +26545,7 @@
         <v>35</v>
       </c>
       <c r="AO94" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AP94">
         <v>-1</v>
@@ -26626,12 +26662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:90">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -26770,7 +26806,7 @@
         <v>0</v>
       </c>
       <c r="AW95" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AX95" s="4">
         <v>2</v>
@@ -26855,10 +26891,10 @@
         <v>0</v>
       </c>
       <c r="CF95" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG95" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH95" s="4">
         <v>0</v>
@@ -26876,12 +26912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:90">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -27020,7 +27056,7 @@
         <v>0</v>
       </c>
       <c r="AW96" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AX96" s="4">
         <v>2</v>
@@ -27105,10 +27141,10 @@
         <v>0</v>
       </c>
       <c r="CF96" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG96" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH96" s="4">
         <v>0</v>
@@ -27126,12 +27162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:90">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -27270,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="AW97" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AX97" s="4">
         <v>2</v>
@@ -27355,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="CF97" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG97" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH97" s="4">
         <v>0</v>
@@ -27376,12 +27412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:90">
       <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -27493,7 +27529,7 @@
         <v>0</v>
       </c>
       <c r="AN98" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AO98" s="4">
         <v>0</v>
@@ -27603,10 +27639,10 @@
         <v>0</v>
       </c>
       <c r="CF98" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG98" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH98" s="4">
         <v>0</v>
@@ -27624,12 +27660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:90">
       <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -27768,7 +27804,7 @@
         <v>0</v>
       </c>
       <c r="AW99" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AX99" s="4">
         <v>2</v>
@@ -27853,10 +27889,10 @@
         <v>0</v>
       </c>
       <c r="CF99" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG99" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH99" s="4">
         <v>0</v>
@@ -27874,12 +27910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:90">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -28107,12 +28143,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:90">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -28343,12 +28379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:90">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -28579,12 +28615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:90">
       <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -28723,7 +28759,7 @@
         <v>0</v>
       </c>
       <c r="AW103" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AX103" s="4">
         <v>2</v>
@@ -28808,10 +28844,10 @@
         <v>0</v>
       </c>
       <c r="CF103" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG103" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH103" s="4">
         <v>0</v>
@@ -28829,12 +28865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:90">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -29063,12 +29099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:90">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -29296,12 +29332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:90">
       <c r="A106" s="4">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -29440,7 +29476,7 @@
         <v>0</v>
       </c>
       <c r="AW106" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AX106" s="4">
         <v>2</v>
@@ -29525,10 +29561,10 @@
         <v>0</v>
       </c>
       <c r="CF106" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG106" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH106" s="4">
         <v>0</v>
@@ -29546,12 +29582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:90">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -29785,12 +29821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:90">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -30024,12 +30060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:90">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -30263,12 +30299,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:90">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -30382,7 +30418,7 @@
         <v>30</v>
       </c>
       <c r="AO110" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AP110">
         <v>9</v>
@@ -30502,12 +30538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:90">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -30636,7 +30672,7 @@
         <v>1</v>
       </c>
       <c r="AT111" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AU111">
         <v>0</v>
@@ -30693,7 +30729,7 @@
         <v>-1</v>
       </c>
       <c r="BT111" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BV111">
         <v>2</v>
@@ -30744,12 +30780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:90">
       <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -30965,7 +31001,7 @@
         <v>3</v>
       </c>
       <c r="CD112" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="CE112">
         <v>0</v>
@@ -30974,7 +31010,7 @@
         <v>73</v>
       </c>
       <c r="CG112" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH112" s="4">
         <v>2</v>
@@ -30992,12 +31028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:90">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -31228,12 +31264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:90">
       <c r="A114" s="4">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -31382,7 +31418,7 @@
         <v>2</v>
       </c>
       <c r="BA114" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BB114" s="4"/>
       <c r="BC114" s="4">
@@ -31460,7 +31496,7 @@
         <v>73</v>
       </c>
       <c r="CG114" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH114" s="4">
         <v>0</v>
@@ -31478,12 +31514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:90">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -31715,12 +31751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:90">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -31948,12 +31984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:90">
       <c r="A117" s="4">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -32092,7 +32128,7 @@
         <v>0</v>
       </c>
       <c r="AW117" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AX117" s="4">
         <v>2</v>
@@ -32177,10 +32213,10 @@
         <v>0</v>
       </c>
       <c r="CF117" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG117" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH117" s="4">
         <v>0</v>
@@ -32198,12 +32234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:90">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -32434,12 +32470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:90">
       <c r="A119" s="4">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -32578,7 +32614,7 @@
         <v>0</v>
       </c>
       <c r="AW119" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AX119" s="4">
         <v>2</v>
@@ -32663,10 +32699,10 @@
         <v>0</v>
       </c>
       <c r="CF119" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG119" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH119" s="4">
         <v>0</v>
@@ -32684,12 +32720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:90">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -32824,7 +32860,7 @@
         <v>0</v>
       </c>
       <c r="AW120" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX120">
         <v>2</v>
@@ -32920,12 +32956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:90">
       <c r="A121" s="4">
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
@@ -33074,7 +33110,7 @@
         <v>2</v>
       </c>
       <c r="BA121" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BB121" s="4"/>
       <c r="BC121" s="4">
@@ -33152,7 +33188,7 @@
         <v>73</v>
       </c>
       <c r="CG121" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CH121" s="4">
         <v>0</v>
@@ -33170,12 +33206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:90">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -33406,12 +33442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:90">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -33648,12 +33684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:90" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:90">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -33767,7 +33803,7 @@
         <v>100</v>
       </c>
       <c r="AO124" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AP124">
         <v>1.5</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D5B26B-79D5-416D-B74F-CA6B6E2329B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -647,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -673,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -725,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -751,7 +750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -777,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -803,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -829,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -855,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -881,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -907,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -959,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1011,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1037,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1089,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1141,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+    <comment ref="AU1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1169,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+    <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+    <comment ref="AY1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+    <comment ref="AZ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1299,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+    <comment ref="BA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1325,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+    <comment ref="BB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1351,7 +1350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+    <comment ref="BC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1378,7 +1377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+    <comment ref="BD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1393,7 +1392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+    <comment ref="BE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1419,7 +1418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+    <comment ref="BF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1445,7 +1444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+    <comment ref="BG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1471,7 +1470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+    <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1497,7 +1496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
+    <comment ref="BI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1523,7 +1522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+    <comment ref="BJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1549,7 +1548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+    <comment ref="BK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
+    <comment ref="BL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1601,7 +1600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+    <comment ref="BM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1627,7 +1626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+    <comment ref="BN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+    <comment ref="BO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1679,7 +1678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+    <comment ref="BP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1705,7 +1704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+    <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1731,7 +1730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
+    <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1757,7 +1756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+    <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1783,7 +1782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+    <comment ref="BT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1809,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+    <comment ref="BU1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1835,7 +1834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+    <comment ref="BV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1861,7 +1860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
+    <comment ref="BW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1887,7 +1886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
+    <comment ref="BX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1901,7 +1900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
+    <comment ref="BY1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1927,7 +1926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
+    <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1953,7 +1952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
+    <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1979,7 +1978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
+    <comment ref="CB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
+    <comment ref="CC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2032,7 +2031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
+    <comment ref="CD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2058,7 +2057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
+    <comment ref="CE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2084,7 +2083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
+    <comment ref="CF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2110,7 +2109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
+    <comment ref="CG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2136,7 +2135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
+    <comment ref="CH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2162,7 +2161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
+    <comment ref="CI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2188,7 +2187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
+    <comment ref="CJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2214,7 +2213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
+    <comment ref="CK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2242,7 +2241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
+    <comment ref="CL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2273,7 +2272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="369">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3688,12 +3687,16 @@
     <t>MirrorUsed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>6,10,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3783,7 +3786,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3858,23 +3861,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3910,23 +3896,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4102,15 +4071,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U75" sqref="U75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="4" max="7" width="14.875" customWidth="1"/>
@@ -4131,7 +4100,7 @@
     <col min="90" max="90" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="136.5" customHeight="1">
+    <row r="1" spans="1:90" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:90">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4642,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:90">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4878,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:90" ht="12.75" customHeight="1">
+    <row r="4" spans="1:90" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5117,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:90">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5350,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:90">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5592,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:90">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5834,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:90">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6070,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:90">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6313,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:90">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6552,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:90">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6791,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:90">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7027,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:90">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7266,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:90">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7505,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:90">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7747,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:90">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7986,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:90">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8225,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:90">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8464,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:90">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8703,7 +8672,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:90">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8939,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:90">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9181,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:90">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9420,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:90">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9659,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:90">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9895,7 +9864,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:90">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10134,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:90">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10373,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:90">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10612,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:90">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10848,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:90">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11087,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:90">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11329,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:90">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11568,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:90">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11807,7 +11776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:90">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12046,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:90">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12285,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:90">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12524,7 +12493,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:90">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12760,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:90">
+    <row r="37" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12996,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:90">
+    <row r="38" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13232,7 +13201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:90">
+    <row r="39" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13468,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:90">
+    <row r="40" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13710,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:90">
+    <row r="41" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13949,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:90">
+    <row r="42" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -14185,7 +14154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:90">
+    <row r="43" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -14418,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:90">
+    <row r="44" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -14657,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:90">
+    <row r="45" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -14896,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:90">
+    <row r="46" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15136,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:90">
+    <row r="47" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15378,7 +15347,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:90">
+    <row r="48" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15620,7 +15589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:90">
+    <row r="49" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -15859,7 +15828,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:90">
+    <row r="50" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -16098,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:90">
+    <row r="51" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -16337,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:90">
+    <row r="52" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -16576,7 +16545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:90">
+    <row r="53" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -16812,7 +16781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:90">
+    <row r="54" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17051,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:90">
+    <row r="55" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17287,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:90">
+    <row r="56" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17526,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:90">
+    <row r="57" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17759,7 +17728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:90">
+    <row r="58" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17998,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:90">
+    <row r="59" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18237,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:90">
+    <row r="60" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18479,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:90">
+    <row r="61" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18721,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:90">
+    <row r="62" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18957,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:90">
+    <row r="63" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -19193,7 +19162,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:90">
+    <row r="64" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -19432,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:90">
+    <row r="65" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -19666,7 +19635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:90">
+    <row r="66" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -19902,7 +19871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:90">
+    <row r="67" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -20141,7 +20110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:90">
+    <row r="68" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20380,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:90">
+    <row r="69" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20619,7 +20588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:90">
+    <row r="70" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20858,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:90">
+    <row r="71" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -21097,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:90">
+    <row r="72" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -21339,7 +21308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:90">
+    <row r="73" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -21581,7 +21550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:90">
+    <row r="74" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -21823,7 +21792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:90">
+    <row r="75" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -21882,7 +21851,7 @@
         <v>19</v>
       </c>
       <c r="U75" t="s">
-        <v>204</v>
+        <v>368</v>
       </c>
       <c r="V75">
         <v>2</v>
@@ -22065,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:90">
+    <row r="76" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -22304,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:90">
+    <row r="77" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -22543,7 +22512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:90">
+    <row r="78" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -22782,7 +22751,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:90">
+    <row r="79" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -23018,7 +22987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:90">
+    <row r="80" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -23254,7 +23223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:90">
+    <row r="81" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -23487,7 +23456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:90">
+    <row r="82" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -23720,7 +23689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:90">
+    <row r="83" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -23959,7 +23928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:90">
+    <row r="84" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -24192,7 +24161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:90">
+    <row r="85" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -24442,7 +24411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:90">
+    <row r="86" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -24692,7 +24661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:90">
+    <row r="87" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -24944,7 +24913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:90">
+    <row r="88" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -25192,7 +25161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:90">
+    <row r="89" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -25442,7 +25411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:90">
+    <row r="90" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -25690,7 +25659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:90">
+    <row r="91" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -25940,7 +25909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:90">
+    <row r="92" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -26176,7 +26145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:90">
+    <row r="93" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -26426,7 +26395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:90">
+    <row r="94" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -26662,7 +26631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:90">
+    <row r="95" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -26912,7 +26881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:90">
+    <row r="96" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -27162,7 +27131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:90">
+    <row r="97" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -27412,7 +27381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:90">
+    <row r="98" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -27660,7 +27629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:90">
+    <row r="99" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -27910,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:90">
+    <row r="100" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -28143,7 +28112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:90">
+    <row r="101" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -28379,7 +28348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:90">
+    <row r="102" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -28615,7 +28584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:90">
+    <row r="103" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -28865,7 +28834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:90">
+    <row r="104" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -29099,7 +29068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:90">
+    <row r="105" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -29332,7 +29301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:90">
+    <row r="106" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -29582,7 +29551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:90">
+    <row r="107" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -29821,7 +29790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:90">
+    <row r="108" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -30060,7 +30029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:90">
+    <row r="109" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -30299,7 +30268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:90">
+    <row r="110" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -30538,7 +30507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:90">
+    <row r="111" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -30780,7 +30749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:90">
+    <row r="112" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -31028,7 +30997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:90">
+    <row r="113" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -31264,7 +31233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:90">
+    <row r="114" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -31514,7 +31483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:90">
+    <row r="115" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -31751,7 +31720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:90">
+    <row r="116" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -31984,7 +31953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:90">
+    <row r="117" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -32234,7 +32203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:90">
+    <row r="118" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -32470,7 +32439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:90">
+    <row r="119" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -32720,7 +32689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:90">
+    <row r="120" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -32956,7 +32925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:90">
+    <row r="121" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -33206,7 +33175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:90">
+    <row r="122" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -33442,7 +33411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:90">
+    <row r="123" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -33684,7 +33653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:90">
+    <row r="124" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="370">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3689,6 +3689,10 @@
   </si>
   <si>
     <t>6,10,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4074,9 +4078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U75" sqref="U75"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM77" sqref="AM77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21904,8 +21908,8 @@
       <c r="AL75">
         <v>0</v>
       </c>
-      <c r="AM75">
-        <v>8</v>
+      <c r="AM75" t="s">
+        <v>369</v>
       </c>
       <c r="AN75">
         <v>0</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1440,7 +1440,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//触发需满足的额外条件 0:表示没有额外条件 1:表示范围内地方英雄不超过几个 2:表示范围内敌方单位不超过几个 3:有特定buff</t>
+//触发需满足的额外条件 0:表示没有额外条件 1:表示范围内地方英雄不超过几个 2:表示范围内敌方单位不超过几个 3:有特定buff
+4:目标单位类型</t>
         </r>
       </text>
     </comment>
@@ -2272,7 +2273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="371">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2788,9 +2789,6 @@
   </si>
   <si>
     <t>PathHaloMinTime</t>
-  </si>
-  <si>
-    <t>TriggerOtherRule</t>
   </si>
   <si>
     <t>TriggerOtherRuleParam</t>
@@ -3693,6 +3691,14 @@
   </si>
   <si>
     <t>6,8,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerOtherRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:2:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4078,9 +4084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM77" sqref="AM77"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC75" sqref="AC75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4118,46 +4124,46 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -4166,19 +4172,19 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>9</v>
@@ -4193,16 +4199,16 @@
         <v>132</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>118</v>
@@ -4211,10 +4217,10 @@
         <v>119</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>120</v>
@@ -4223,7 +4229,7 @@
         <v>12</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>13</v>
@@ -4244,10 +4250,10 @@
         <v>16</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>17</v>
@@ -4256,10 +4262,10 @@
         <v>22</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>23</v>
@@ -4271,19 +4277,19 @@
         <v>27</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BF1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="BH1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>53</v>
@@ -4328,7 +4334,7 @@
         <v>42</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>102</v>
@@ -4340,7 +4346,7 @@
         <v>51</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="CB1" s="1" t="s">
         <v>57</v>
@@ -4352,7 +4358,7 @@
         <v>59</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="CF1" s="1" t="s">
         <v>77</v>
@@ -4364,10 +4370,10 @@
         <v>60</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>69</v>
@@ -5570,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5812,7 +5818,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -6048,7 +6054,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6177,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -6641,7 +6647,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -7005,7 +7011,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -7164,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -7355,7 +7361,7 @@
         <v>6.75</v>
       </c>
       <c r="AN14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -7594,7 +7600,7 @@
         <v>7.75</v>
       </c>
       <c r="AN15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -7725,7 +7731,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -7878,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="BD16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE16">
         <v>2</v>
@@ -7964,7 +7970,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -8075,7 +8081,7 @@
         <v>6</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8203,7 +8209,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8317,7 +8323,7 @@
         <v>67</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AP18">
         <v>-1</v>
@@ -8442,7 +8448,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8681,7 +8687,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -8917,7 +8923,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9159,7 +9165,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9398,7 +9404,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9509,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="AN23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -9637,7 +9643,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9873,7 +9879,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -10112,7 +10118,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -10351,7 +10357,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10590,7 +10596,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -10826,7 +10832,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -11065,7 +11071,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -11176,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="AN30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -11307,7 +11313,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11546,7 +11552,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -11785,7 +11791,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11896,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="AN33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -12024,7 +12030,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -12263,7 +12269,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12392,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="AT35" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -12502,7 +12508,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12738,7 +12744,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -12974,7 +12980,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -13210,7 +13216,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -13446,7 +13452,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13688,7 +13694,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -13927,7 +13933,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -14163,7 +14169,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -14396,7 +14402,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -14635,7 +14641,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14874,7 +14880,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14985,7 +14991,7 @@
         <v>6</v>
       </c>
       <c r="AN46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -15114,7 +15120,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -15837,7 +15843,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15948,7 +15954,7 @@
         <v>10</v>
       </c>
       <c r="AN50" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO50" s="2" t="s">
         <v>133</v>
@@ -16315,7 +16321,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -16429,7 +16435,7 @@
         <v>0.1</v>
       </c>
       <c r="AO52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP52">
         <v>-1</v>
@@ -16474,7 +16480,7 @@
         <v>2</v>
       </c>
       <c r="BG52" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BH52">
         <v>0</v>
@@ -16554,7 +16560,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -16790,7 +16796,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -16901,7 +16907,7 @@
         <v>15</v>
       </c>
       <c r="AN54" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -16919,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="AT54" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -16973,7 +16979,7 @@
         <v>-1</v>
       </c>
       <c r="BT54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BV54">
         <v>1</v>
@@ -17029,7 +17035,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -17265,7 +17271,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -17376,7 +17382,7 @@
         <v>12</v>
       </c>
       <c r="AN56" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -17394,46 +17400,46 @@
         <v>1</v>
       </c>
       <c r="AT56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>2</v>
+      </c>
+      <c r="AZ56">
+        <v>2</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>1</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="AU56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AX56">
-        <v>2</v>
-      </c>
-      <c r="AY56">
-        <v>2</v>
-      </c>
-      <c r="AZ56">
-        <v>2</v>
-      </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-      <c r="BD56">
-        <v>0</v>
-      </c>
-      <c r="BE56">
-        <v>1</v>
-      </c>
-      <c r="BF56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>0</v>
-      </c>
-      <c r="BI56">
-        <v>0</v>
-      </c>
-      <c r="BJ56">
-        <v>0</v>
-      </c>
-      <c r="BK56" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="BO56">
         <v>10</v>
@@ -17504,7 +17510,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -17615,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="AO57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AP57">
         <v>-1</v>
@@ -17737,7 +17743,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -17845,7 +17851,7 @@
         <v>0</v>
       </c>
       <c r="AN58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -17976,7 +17982,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -18087,10 +18093,10 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AO59" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AP59">
         <v>-1</v>
@@ -18105,7 +18111,7 @@
         <v>1</v>
       </c>
       <c r="AT59" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -18215,7 +18221,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -18344,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="AT60" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -18457,7 +18463,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -18699,7 +18705,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -18810,10 +18816,10 @@
         <v>2.75</v>
       </c>
       <c r="AN62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO62" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="AO62" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="AP62">
         <v>2.75</v>
@@ -18935,7 +18941,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -19046,10 +19052,10 @@
         <v>3</v>
       </c>
       <c r="AN63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO63" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AP63">
         <v>-1</v>
@@ -19064,7 +19070,7 @@
         <v>1</v>
       </c>
       <c r="AT63" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -19163,7 +19169,7 @@
         <v>7</v>
       </c>
       <c r="CL63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:90" x14ac:dyDescent="0.15">
@@ -19171,7 +19177,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -19285,7 +19291,7 @@
         <v>6</v>
       </c>
       <c r="AO64" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP64">
         <v>-1</v>
@@ -19300,7 +19306,7 @@
         <v>1</v>
       </c>
       <c r="AT64" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -19410,7 +19416,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -19440,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N65">
         <v>5</v>
@@ -19644,7 +19650,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -19880,7 +19886,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -20009,7 +20015,7 @@
         <v>1</v>
       </c>
       <c r="AT67" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -20119,7 +20125,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -20230,7 +20236,7 @@
         <v>0</v>
       </c>
       <c r="AN68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -20248,7 +20254,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AU68">
         <v>0</v>
@@ -20358,7 +20364,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -20469,7 +20475,7 @@
         <v>6</v>
       </c>
       <c r="AN69" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AO69">
         <v>0</v>
@@ -20526,7 +20532,7 @@
         <v>0</v>
       </c>
       <c r="BK69" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BO69">
         <v>10</v>
@@ -20597,7 +20603,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -20705,7 +20711,7 @@
         <v>14</v>
       </c>
       <c r="AN70" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO70" s="2" t="s">
         <v>79</v>
@@ -20836,7 +20842,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -20947,7 +20953,7 @@
         <v>8</v>
       </c>
       <c r="AN71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -20965,16 +20971,16 @@
         <v>1</v>
       </c>
       <c r="AT71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71" t="s">
         <v>192</v>
-      </c>
-      <c r="AU71">
-        <v>0</v>
-      </c>
-      <c r="AV71">
-        <v>0</v>
-      </c>
-      <c r="AW71" t="s">
-        <v>193</v>
       </c>
       <c r="AX71">
         <v>2</v>
@@ -21075,7 +21081,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -21186,7 +21192,7 @@
         <v>2.6</v>
       </c>
       <c r="AN72" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -21246,7 +21252,7 @@
         <v>0</v>
       </c>
       <c r="BK72" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BO72">
         <v>10</v>
@@ -21317,7 +21323,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -21446,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -21509,7 +21515,7 @@
         <v>0</v>
       </c>
       <c r="BX73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BY73">
         <v>0.5</v>
@@ -21559,7 +21565,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -21801,7 +21807,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -21855,7 +21861,7 @@
         <v>19</v>
       </c>
       <c r="U75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V75">
         <v>2</v>
@@ -21876,7 +21882,7 @@
         <v>0.9</v>
       </c>
       <c r="AB75">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AC75">
         <v>10</v>
@@ -21909,13 +21915,13 @@
         <v>0</v>
       </c>
       <c r="AM75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN75">
         <v>0</v>
       </c>
       <c r="AO75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AP75">
         <v>2</v>
@@ -21996,7 +22002,7 @@
         <v>0.5</v>
       </c>
       <c r="BY75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BZ75">
         <v>2</v>
@@ -22043,7 +22049,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -22154,7 +22160,7 @@
         <v>4.75</v>
       </c>
       <c r="AN76" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO76">
         <v>0</v>
@@ -22172,7 +22178,7 @@
         <v>1</v>
       </c>
       <c r="AT76" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU76">
         <v>0</v>
@@ -22250,7 +22256,7 @@
         <v>1</v>
       </c>
       <c r="CD76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE76">
         <v>0</v>
@@ -22282,7 +22288,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -22390,7 +22396,7 @@
         <v>0</v>
       </c>
       <c r="AN77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO77">
         <v>0</v>
@@ -22521,7 +22527,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -22752,7 +22758,7 @@
         <v>8</v>
       </c>
       <c r="CL78" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:90" x14ac:dyDescent="0.15">
@@ -22760,7 +22766,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -22886,16 +22892,16 @@
         <v>1</v>
       </c>
       <c r="AT79" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="s">
         <v>214</v>
-      </c>
-      <c r="AU79">
-        <v>0</v>
-      </c>
-      <c r="AV79">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="s">
-        <v>215</v>
       </c>
       <c r="AX79">
         <v>2</v>
@@ -22996,7 +23002,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -23232,7 +23238,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -23465,7 +23471,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -23672,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="CF82" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CG82" s="2" t="s">
         <v>72</v>
@@ -23698,7 +23704,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -23937,7 +23943,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -24170,7 +24176,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -24319,7 +24325,7 @@
         <v>2</v>
       </c>
       <c r="BA85" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BB85" s="4"/>
       <c r="BC85" s="4">
@@ -24397,7 +24403,7 @@
         <v>73</v>
       </c>
       <c r="CG85" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CH85" s="4">
         <v>0</v>
@@ -24420,7 +24426,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -24535,7 +24541,7 @@
         <v>30</v>
       </c>
       <c r="AO86" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AP86" s="4">
         <v>12</v>
@@ -24670,7 +24676,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -24809,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="AW87" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AX87" s="4">
         <v>2</v>
@@ -24896,10 +24902,10 @@
         <v>0</v>
       </c>
       <c r="CF87" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CG87" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CH87" s="4">
         <v>0</v>
@@ -24922,7 +24928,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -25037,7 +25043,7 @@
         <v>55</v>
       </c>
       <c r="AO88" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP88" s="4">
         <v>-1</v>
@@ -25170,7 +25176,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -25285,7 +25291,7 @@
         <v>30</v>
       </c>
       <c r="AO89" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP89" s="4">
         <v>12</v>
@@ -25420,7 +25426,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -25535,7 +25541,7 @@
         <v>65</v>
       </c>
       <c r="AO90" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP90" s="4">
         <v>-1</v>
@@ -25636,7 +25642,7 @@
         <v>1</v>
       </c>
       <c r="CD90" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="CE90">
         <v>0</v>
@@ -25668,7 +25674,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -25783,7 +25789,7 @@
         <v>60</v>
       </c>
       <c r="AO91" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP91" s="4">
         <v>12</v>
@@ -25918,7 +25924,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -26154,7 +26160,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -26269,7 +26275,7 @@
         <v>20</v>
       </c>
       <c r="AO93" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP93" s="4">
         <v>6</v>
@@ -26404,7 +26410,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -26518,7 +26524,7 @@
         <v>35</v>
       </c>
       <c r="AO94" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AP94">
         <v>-1</v>
@@ -26640,7 +26646,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -26779,7 +26785,7 @@
         <v>0</v>
       </c>
       <c r="AW95" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AX95" s="4">
         <v>2</v>
@@ -26864,10 +26870,10 @@
         <v>0</v>
       </c>
       <c r="CF95" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG95" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH95" s="4">
         <v>0</v>
@@ -26890,7 +26896,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -27029,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="AW96" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AX96" s="4">
         <v>2</v>
@@ -27114,10 +27120,10 @@
         <v>0</v>
       </c>
       <c r="CF96" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG96" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH96" s="4">
         <v>0</v>
@@ -27140,7 +27146,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -27279,7 +27285,7 @@
         <v>0</v>
       </c>
       <c r="AW97" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AX97" s="4">
         <v>2</v>
@@ -27364,10 +27370,10 @@
         <v>0</v>
       </c>
       <c r="CF97" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG97" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH97" s="4">
         <v>0</v>
@@ -27390,7 +27396,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -27502,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="AN98" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO98" s="4">
         <v>0</v>
@@ -27612,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="CF98" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG98" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH98" s="4">
         <v>0</v>
@@ -27638,7 +27644,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -27777,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="AW99" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AX99" s="4">
         <v>2</v>
@@ -27862,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="CF99" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG99" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH99" s="4">
         <v>0</v>
@@ -27888,7 +27894,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -28121,7 +28127,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -28357,7 +28363,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -28593,7 +28599,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -28732,7 +28738,7 @@
         <v>0</v>
       </c>
       <c r="AW103" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AX103" s="4">
         <v>2</v>
@@ -28817,10 +28823,10 @@
         <v>0</v>
       </c>
       <c r="CF103" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG103" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH103" s="4">
         <v>0</v>
@@ -28843,7 +28849,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -29077,7 +29083,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -29310,7 +29316,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -29449,7 +29455,7 @@
         <v>0</v>
       </c>
       <c r="AW106" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AX106" s="4">
         <v>2</v>
@@ -29534,10 +29540,10 @@
         <v>0</v>
       </c>
       <c r="CF106" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG106" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH106" s="4">
         <v>0</v>
@@ -29560,7 +29566,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -29799,7 +29805,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -30038,7 +30044,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -30277,7 +30283,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -30391,7 +30397,7 @@
         <v>30</v>
       </c>
       <c r="AO110" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AP110">
         <v>9</v>
@@ -30516,7 +30522,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -30645,7 +30651,7 @@
         <v>1</v>
       </c>
       <c r="AT111" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AU111">
         <v>0</v>
@@ -30702,7 +30708,7 @@
         <v>-1</v>
       </c>
       <c r="BT111" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BV111">
         <v>2</v>
@@ -30758,7 +30764,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -30974,7 +30980,7 @@
         <v>3</v>
       </c>
       <c r="CD112" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="CE112">
         <v>0</v>
@@ -30983,7 +30989,7 @@
         <v>73</v>
       </c>
       <c r="CG112" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH112" s="4">
         <v>2</v>
@@ -31006,7 +31012,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -31242,7 +31248,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -31391,7 +31397,7 @@
         <v>2</v>
       </c>
       <c r="BA114" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BB114" s="4"/>
       <c r="BC114" s="4">
@@ -31469,7 +31475,7 @@
         <v>73</v>
       </c>
       <c r="CG114" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH114" s="4">
         <v>0</v>
@@ -31492,7 +31498,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -31729,7 +31735,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -31882,7 +31888,10 @@
         <v>1</v>
       </c>
       <c r="BF116">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="BG116" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="BH116">
         <v>0</v>
@@ -31962,7 +31971,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -32101,7 +32110,7 @@
         <v>0</v>
       </c>
       <c r="AW117" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AX117" s="4">
         <v>2</v>
@@ -32186,10 +32195,10 @@
         <v>0</v>
       </c>
       <c r="CF117" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG117" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH117" s="4">
         <v>0</v>
@@ -32212,7 +32221,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -32448,7 +32457,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -32587,7 +32596,7 @@
         <v>0</v>
       </c>
       <c r="AW119" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AX119" s="4">
         <v>2</v>
@@ -32672,10 +32681,10 @@
         <v>0</v>
       </c>
       <c r="CF119" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CG119" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH119" s="4">
         <v>0</v>
@@ -32698,7 +32707,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -32833,7 +32842,7 @@
         <v>0</v>
       </c>
       <c r="AW120" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX120">
         <v>2</v>
@@ -32934,7 +32943,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
@@ -33083,7 +33092,7 @@
         <v>2</v>
       </c>
       <c r="BA121" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BB121" s="4"/>
       <c r="BC121" s="4">
@@ -33161,7 +33170,7 @@
         <v>73</v>
       </c>
       <c r="CG121" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CH121" s="4">
         <v>0</v>
@@ -33184,7 +33193,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -33420,7 +33429,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -33662,7 +33671,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -33776,7 +33785,7 @@
         <v>100</v>
       </c>
       <c r="AO124" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AP124">
         <v>1.5</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -4084,9 +4084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC75" sqref="AC75"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB59" sqref="D59:AB59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8284,7 +8284,7 @@
         <v>0.9</v>
       </c>
       <c r="AB18">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AC18">
         <v>10</v>
@@ -8523,7 +8523,7 @@
         <v>0.9</v>
       </c>
       <c r="AB19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AC19">
         <v>10</v>
@@ -12105,7 +12105,7 @@
         <v>0.9</v>
       </c>
       <c r="AB34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>10</v>
@@ -16871,7 +16871,7 @@
         <v>0.9</v>
       </c>
       <c r="AB54">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AC54">
         <v>10</v>
@@ -21156,7 +21156,7 @@
         <v>0.9</v>
       </c>
       <c r="AB72">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AC72">
         <v>10</v>
@@ -21882,7 +21882,7 @@
         <v>0.9</v>
       </c>
       <c r="AB75">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC75">
         <v>10</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3686,10 +3686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,10,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6,8,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3699,6 +3695,10 @@
   </si>
   <si>
     <t>1:2:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4084,9 +4084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB59" sqref="D59:AB59"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U76" sqref="U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4283,7 +4283,7 @@
         <v>28</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>141</v>
@@ -21861,7 +21861,7 @@
         <v>19</v>
       </c>
       <c r="U75" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="V75">
         <v>2</v>
@@ -21915,7 +21915,7 @@
         <v>0</v>
       </c>
       <c r="AM75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN75">
         <v>0</v>
@@ -31891,7 +31891,7 @@
         <v>4</v>
       </c>
       <c r="BG116" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BH116">
         <v>0</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -408,7 +408,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-目标单位关系 1:友方  2:敌方 3:友方敌方都行包括自己  4:友方敌方都行不包括自己 5:自己 10:除自己外的其他 20 自己控制的单位(不包括自己)</t>
+目标单位关系 1:友方  2:敌方 3:友方敌方都行包括自己  4:友方敌方都行不包括自己 5:自己 10:除自己外的其他 20 自己控制的单位(不包括自己) 6:自己和敌方</t>
         </r>
       </text>
     </comment>
@@ -434,7 +434,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-目标单位类型 (1:英雄 2:普通单位 3:远古 4:boss) 5:都行</t>
+目标单位类型 (1:英雄 2:普通单位 3:远古 4:boss) 5:都行 6:除了boss都行</t>
         </r>
       </text>
     </comment>
@@ -4084,9 +4084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U76" sqref="U76"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26689,10 +26689,10 @@
         <v>1</v>
       </c>
       <c r="Q95" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R95" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S95" s="4">
         <v>2</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3057,10 +3057,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瘟疫法师歇心光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5:91</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3699,6 +3695,10 @@
   </si>
   <si>
     <t>8,10,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师歇心光环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4084,9 +4084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S94" sqref="S94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4124,22 +4124,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>134</v>
@@ -4157,7 +4157,7 @@
         <v>179</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>150</v>
@@ -4172,19 +4172,19 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>9</v>
@@ -4199,16 +4199,16 @@
         <v>132</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>118</v>
@@ -4229,7 +4229,7 @@
         <v>12</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>13</v>
@@ -4277,19 +4277,19 @@
         <v>27</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>53</v>
@@ -4334,7 +4334,7 @@
         <v>42</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>102</v>
@@ -4346,7 +4346,7 @@
         <v>51</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="CB1" s="1" t="s">
         <v>57</v>
@@ -4358,7 +4358,7 @@
         <v>59</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CF1" s="1" t="s">
         <v>77</v>
@@ -4370,10 +4370,10 @@
         <v>60</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>69</v>
@@ -5576,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5818,7 +5818,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -6054,7 +6054,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6183,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -6647,7 +6647,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -7170,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>6.75</v>
       </c>
       <c r="AN14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -7600,7 +7600,7 @@
         <v>7.75</v>
       </c>
       <c r="AN15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -7731,7 +7731,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -7884,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="BD16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BE16">
         <v>2</v>
@@ -7970,7 +7970,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -8081,7 +8081,7 @@
         <v>6</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8323,7 +8323,7 @@
         <v>67</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AP18">
         <v>-1</v>
@@ -8448,7 +8448,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -8923,7 +8923,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9165,7 +9165,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9404,7 +9404,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="AN23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9879,7 +9879,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -10118,7 +10118,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -10357,7 +10357,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -10832,7 +10832,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -11071,7 +11071,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="AN30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -11313,7 +11313,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11552,7 +11552,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -11791,7 +11791,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="AN33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -12030,7 +12030,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -12269,7 +12269,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="AT35" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -12508,7 +12508,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12744,7 +12744,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -12980,7 +12980,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -13216,7 +13216,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -13452,7 +13452,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13694,7 +13694,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -13933,7 +13933,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -14169,7 +14169,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -14402,7 +14402,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -14641,7 +14641,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14880,7 +14880,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14991,7 +14991,7 @@
         <v>6</v>
       </c>
       <c r="AN46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -15120,7 +15120,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -15843,7 +15843,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15954,7 +15954,7 @@
         <v>10</v>
       </c>
       <c r="AN50" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO50" s="2" t="s">
         <v>133</v>
@@ -16480,7 +16480,7 @@
         <v>2</v>
       </c>
       <c r="BG52" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BH52">
         <v>0</v>
@@ -16907,7 +16907,7 @@
         <v>15</v>
       </c>
       <c r="AN54" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -17271,7 +17271,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -17382,7 +17382,7 @@
         <v>12</v>
       </c>
       <c r="AN56" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -18463,7 +18463,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -19052,7 +19052,7 @@
         <v>3</v>
       </c>
       <c r="AN63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AO63" s="2" t="s">
         <v>172</v>
@@ -19306,7 +19306,7 @@
         <v>1</v>
       </c>
       <c r="AT64" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -19886,7 +19886,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -20125,7 +20125,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -20236,7 +20236,7 @@
         <v>0</v>
       </c>
       <c r="AN68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -21323,7 +21323,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         <v>19</v>
       </c>
       <c r="U75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V75">
         <v>2</v>
@@ -21915,7 +21915,7 @@
         <v>0</v>
       </c>
       <c r="AM75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AN75">
         <v>0</v>
@@ -22527,7 +22527,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -22758,7 +22758,7 @@
         <v>8</v>
       </c>
       <c r="CL78" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:90" x14ac:dyDescent="0.15">
@@ -22766,7 +22766,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -22892,16 +22892,16 @@
         <v>1</v>
       </c>
       <c r="AT79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="s">
         <v>213</v>
-      </c>
-      <c r="AU79">
-        <v>0</v>
-      </c>
-      <c r="AV79">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="s">
-        <v>214</v>
       </c>
       <c r="AX79">
         <v>2</v>
@@ -23002,7 +23002,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -23238,7 +23238,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -23471,7 +23471,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -23678,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="CF82" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="CG82" s="2" t="s">
         <v>72</v>
@@ -23704,7 +23704,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -23943,7 +23943,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -24176,7 +24176,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -24325,7 +24325,7 @@
         <v>2</v>
       </c>
       <c r="BA85" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BB85" s="4"/>
       <c r="BC85" s="4">
@@ -24403,7 +24403,7 @@
         <v>73</v>
       </c>
       <c r="CG85" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CH85" s="4">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -24541,7 +24541,7 @@
         <v>30</v>
       </c>
       <c r="AO86" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AP86" s="4">
         <v>12</v>
@@ -24676,7 +24676,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="AW87" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AX87" s="4">
         <v>2</v>
@@ -24902,10 +24902,10 @@
         <v>0</v>
       </c>
       <c r="CF87" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CG87" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CH87" s="4">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -25176,7 +25176,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -25426,7 +25426,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -25642,7 +25642,7 @@
         <v>1</v>
       </c>
       <c r="CD90" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CE90">
         <v>0</v>
@@ -25674,7 +25674,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -25924,7 +25924,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -26160,7 +26160,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -26410,7 +26410,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -26524,7 +26524,7 @@
         <v>35</v>
       </c>
       <c r="AO94" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AP94">
         <v>-1</v>
@@ -26646,7 +26646,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -26785,7 +26785,7 @@
         <v>0</v>
       </c>
       <c r="AW95" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AX95" s="4">
         <v>2</v>
@@ -26896,7 +26896,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="AW96" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AX96" s="4">
         <v>2</v>
@@ -27146,7 +27146,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -27285,7 +27285,7 @@
         <v>0</v>
       </c>
       <c r="AW97" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AX97" s="4">
         <v>2</v>
@@ -27396,7 +27396,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="AN98" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO98" s="4">
         <v>0</v>
@@ -27644,7 +27644,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="AW99" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AX99" s="4">
         <v>2</v>
@@ -27894,7 +27894,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -28127,7 +28127,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -28363,7 +28363,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -28599,7 +28599,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -28738,7 +28738,7 @@
         <v>0</v>
       </c>
       <c r="AW103" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AX103" s="4">
         <v>2</v>
@@ -28849,7 +28849,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -29083,7 +29083,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -29316,7 +29316,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -29455,7 +29455,7 @@
         <v>0</v>
       </c>
       <c r="AW106" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AX106" s="4">
         <v>2</v>
@@ -29566,7 +29566,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -29805,7 +29805,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -30044,7 +30044,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -30283,7 +30283,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -30397,7 +30397,7 @@
         <v>30</v>
       </c>
       <c r="AO110" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AP110">
         <v>9</v>
@@ -30522,7 +30522,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -30651,7 +30651,7 @@
         <v>1</v>
       </c>
       <c r="AT111" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AU111">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>-1</v>
       </c>
       <c r="BT111" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BV111">
         <v>2</v>
@@ -30764,7 +30764,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -30980,7 +30980,7 @@
         <v>3</v>
       </c>
       <c r="CD112" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CE112">
         <v>0</v>
@@ -31012,7 +31012,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -31248,7 +31248,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -31397,7 +31397,7 @@
         <v>2</v>
       </c>
       <c r="BA114" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BB114" s="4"/>
       <c r="BC114" s="4">
@@ -31498,7 +31498,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -31735,7 +31735,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -31891,7 +31891,7 @@
         <v>4</v>
       </c>
       <c r="BG116" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BH116">
         <v>0</v>
@@ -31971,7 +31971,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -32110,7 +32110,7 @@
         <v>0</v>
       </c>
       <c r="AW117" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AX117" s="4">
         <v>2</v>
@@ -32221,7 +32221,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -32457,7 +32457,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -32596,7 +32596,7 @@
         <v>0</v>
       </c>
       <c r="AW119" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AX119" s="4">
         <v>2</v>
@@ -32707,7 +32707,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -32842,7 +32842,7 @@
         <v>0</v>
       </c>
       <c r="AW120" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AX120">
         <v>2</v>
@@ -32943,7 +32943,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
@@ -33092,7 +33092,7 @@
         <v>2</v>
       </c>
       <c r="BA121" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BB121" s="4"/>
       <c r="BC121" s="4">
@@ -33193,7 +33193,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -33429,7 +33429,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -33671,7 +33671,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -33785,7 +33785,7 @@
         <v>100</v>
       </c>
       <c r="AO124" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AP124">
         <v>1.5</v>
